--- a/trading_strategy/documentation/Examples_GapDown_USDJPY.xlsx
+++ b/trading_strategy/documentation/Examples_GapDown_USDJPY.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparn\Documents\GitHub\cpp_code\trading_strategy\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aparn\Desktop\Job Search\cpp code\Trading_Strategy\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAF3DB0-8D6C-4EF4-AAF0-6CAF712BABB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A97425-5733-4EFD-B896-DA13D8243618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4881A7D3-8AA6-4BEE-9B52-C7C43807363B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4881A7D3-8AA6-4BEE-9B52-C7C43807363B}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeToLive" sheetId="3" r:id="rId1"/>
     <sheet name="TakeProfit" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
-    <sheet name="StopLoss" sheetId="6" r:id="rId4"/>
+    <sheet name="StopLoss" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -79,20 +78,15 @@
   <si>
     <t>t_close</t>
   </si>
-  <si>
-    <t>takeProfit change</t>
-  </si>
-  <si>
-    <t>killTime change</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -123,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17946,10 +17941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75C4850-5BCF-42B2-9A94-2E267CBD00E8}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17960,7 +17955,7 @@
     <col min="8" max="12" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>20240410</v>
       </c>
@@ -17982,7 +17977,7 @@
         <v>152.3725</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20240410</v>
       </c>
@@ -18004,7 +17999,7 @@
         <v>152.358</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20240410</v>
       </c>
@@ -18039,8 +18034,12 @@
       <c r="K3" s="1">
         <v>152.13200000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <f>H3-J3</f>
+        <v>0.27750000000000341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -18083,8 +18082,20 @@
       <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f>P3*0.7*0.7</f>
+        <v>0.13597500000000165</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>I3-J3</f>
+        <v>2.7999999999991587E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <f>Q4/P4</f>
+        <v>0.20592020592014154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20240410</v>
       </c>
@@ -18135,7 +18146,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20240410</v>
       </c>
@@ -18186,7 +18197,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20240410</v>
       </c>
@@ -18237,7 +18248,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20240410</v>
       </c>
@@ -18288,7 +18299,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20240410</v>
       </c>
@@ -18339,7 +18350,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20240410</v>
       </c>
@@ -18390,7 +18401,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20240410</v>
       </c>
@@ -18441,7 +18452,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20240410</v>
       </c>
@@ -18492,7 +18503,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20240410</v>
       </c>
@@ -18543,7 +18554,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20240410</v>
       </c>
@@ -18594,7 +18605,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20240410</v>
       </c>
@@ -18645,7 +18656,7 @@
         <v>3954.7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20240410</v>
       </c>
@@ -22886,10 +22897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB55D8BF-5924-4265-9B64-DEA5612B136E}">
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:R213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22900,7 +22911,7 @@
     <col min="8" max="12" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>20240429</v>
       </c>
@@ -22922,7 +22933,7 @@
         <v>156.8135</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20240429</v>
       </c>
@@ -22944,7 +22955,7 @@
         <v>156.83150000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20240429</v>
       </c>
@@ -22988,8 +22999,12 @@
       <c r="N3">
         <v>3220.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <f>H3-J3</f>
+        <v>0.18299999999999272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -23032,8 +23047,20 @@
       <c r="N4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f>P3*0.7*0.7</f>
+        <v>8.9669999999996433E-2</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>I3-J3</f>
+        <v>1.5500000000002956E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <f>Q4/P4</f>
+        <v>0.17285602765700425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20240429</v>
       </c>
@@ -23087,7 +23114,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20240429</v>
       </c>
@@ -23141,7 +23168,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20240429</v>
       </c>
@@ -23195,7 +23222,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20240429</v>
       </c>
@@ -23249,7 +23276,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20240429</v>
       </c>
@@ -23303,7 +23330,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20240429</v>
       </c>
@@ -23357,7 +23384,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20240429</v>
       </c>
@@ -23411,7 +23438,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20240429</v>
       </c>
@@ -23465,7 +23492,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20240429</v>
       </c>
@@ -23519,7 +23546,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20240429</v>
       </c>
@@ -23573,7 +23600,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20240429</v>
       </c>
@@ -23627,7 +23654,7 @@
         <v>3220.4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20240429</v>
       </c>
@@ -34326,1575 +34353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BDB5B9-A365-40C8-8D39-29FF859BB508}">
-  <dimension ref="A1:J97"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>20240429</v>
-      </c>
-      <c r="B1">
-        <v>42203.779000000002</v>
-      </c>
-      <c r="C1">
-        <v>157.16999999999999</v>
-      </c>
-      <c r="D1">
-        <v>157.131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>20240429</v>
-      </c>
-      <c r="B2">
-        <v>42203.830999999998</v>
-      </c>
-      <c r="C2">
-        <v>157.15</v>
-      </c>
-      <c r="D2">
-        <v>157.13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>1.1249999999999999E-3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>0.133823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>20240429</v>
-      </c>
-      <c r="B3">
-        <v>42203.881999999998</v>
-      </c>
-      <c r="C3">
-        <v>157.14599999999999</v>
-      </c>
-      <c r="D3">
-        <v>157.11500000000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>0.30333300000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>20240429</v>
-      </c>
-      <c r="B4">
-        <v>42203.934000000001</v>
-      </c>
-      <c r="C4">
-        <v>157.20400000000001</v>
-      </c>
-      <c r="D4">
-        <v>157.16900000000001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>1.75E-3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>0.20816899999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>20240429</v>
-      </c>
-      <c r="B5">
-        <v>42203.987000000001</v>
-      </c>
-      <c r="C5">
-        <v>157.214</v>
-      </c>
-      <c r="D5">
-        <v>157.15700000000001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>0.32117600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>20240429</v>
-      </c>
-      <c r="B6">
-        <v>42204.09</v>
-      </c>
-      <c r="C6">
-        <v>157.21600000000001</v>
-      </c>
-      <c r="D6">
-        <v>157.16399999999999</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6">
-        <v>0.368757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>20240429</v>
-      </c>
-      <c r="B7">
-        <v>42204.192999999999</v>
-      </c>
-      <c r="C7">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="D7">
-        <v>157.16800000000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>1.3749999999999999E-3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>0.16356200000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>20240429</v>
-      </c>
-      <c r="B8">
-        <v>42204.294999999998</v>
-      </c>
-      <c r="C8">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="D8">
-        <v>157.16200000000001</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>9.2500000000000004E-4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>0.110032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>20240429</v>
-      </c>
-      <c r="B9">
-        <v>42204.398000000001</v>
-      </c>
-      <c r="C9">
-        <v>157.209</v>
-      </c>
-      <c r="D9">
-        <v>157.161</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>1.4499999999999999E-3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>0.172483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>20240429</v>
-      </c>
-      <c r="B10">
-        <v>42204.500999999997</v>
-      </c>
-      <c r="C10">
-        <v>157.232</v>
-      </c>
-      <c r="D10">
-        <v>157.18700000000001</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10">
-        <v>2.15E-3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10">
-        <v>0.25575100000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>20240429</v>
-      </c>
-      <c r="B11">
-        <v>42204.553</v>
-      </c>
-      <c r="C11">
-        <v>157.232</v>
-      </c>
-      <c r="D11">
-        <v>157.18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>2.6749999999999999E-3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11">
-        <v>0.31820199999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>20240429</v>
-      </c>
-      <c r="B12">
-        <v>42204.603999999999</v>
-      </c>
-      <c r="C12">
-        <v>157.232</v>
-      </c>
-      <c r="D12">
-        <v>157.18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>2.1749999999999999E-3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12">
-        <v>0.25872499999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>20240429</v>
-      </c>
-      <c r="B13">
-        <v>42204.707000000002</v>
-      </c>
-      <c r="C13">
-        <v>157.226</v>
-      </c>
-      <c r="D13">
-        <v>157.18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>1E-3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13">
-        <v>0.118954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>20240429</v>
-      </c>
-      <c r="B14">
-        <v>42204.81</v>
-      </c>
-      <c r="C14">
-        <v>157.22999999999999</v>
-      </c>
-      <c r="D14">
-        <v>157.18100000000001</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>9.2500000000000004E-4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>0.110032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>20240429</v>
-      </c>
-      <c r="B15">
-        <v>42204.911999999997</v>
-      </c>
-      <c r="C15">
-        <v>157.232</v>
-      </c>
-      <c r="D15">
-        <v>157.18299999999999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15">
-        <v>5.9477000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>20240429</v>
-      </c>
-      <c r="B16">
-        <v>42205.014999999999</v>
-      </c>
-      <c r="C16">
-        <v>157.221</v>
-      </c>
-      <c r="D16">
-        <v>157.184</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16">
-        <v>8.3267800000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>20240429</v>
-      </c>
-      <c r="B17">
-        <v>42205.116999999998</v>
-      </c>
-      <c r="C17">
-        <v>157.214</v>
-      </c>
-      <c r="D17">
-        <v>157.18199999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>20240429</v>
-      </c>
-      <c r="B18">
-        <v>42205.169000000002</v>
-      </c>
-      <c r="C18">
-        <v>157.221</v>
-      </c>
-      <c r="D18">
-        <v>157.19300000000001</v>
-      </c>
-      <c r="H18">
-        <f>SUM(H2:H16)</f>
-        <v>2.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>20240429</v>
-      </c>
-      <c r="B19">
-        <v>42205.271999999997</v>
-      </c>
-      <c r="C19">
-        <v>157.22499999999999</v>
-      </c>
-      <c r="D19">
-        <v>157.20099999999999</v>
-      </c>
-      <c r="H19" s="1">
-        <v>156.74299999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>20240429</v>
-      </c>
-      <c r="B20">
-        <v>42205.322999999997</v>
-      </c>
-      <c r="C20">
-        <v>157.238</v>
-      </c>
-      <c r="D20">
-        <v>157.20099999999999</v>
-      </c>
-      <c r="H20" s="1">
-        <f>H19+H18</f>
-        <v>156.7681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20240429</v>
-      </c>
-      <c r="B21">
-        <v>42205.375</v>
-      </c>
-      <c r="C21">
-        <v>157.22</v>
-      </c>
-      <c r="D21">
-        <v>157.19800000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20240429</v>
-      </c>
-      <c r="B22">
-        <v>42205.427000000003</v>
-      </c>
-      <c r="C22">
-        <v>157.22</v>
-      </c>
-      <c r="D22">
-        <v>157.18199999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>20240429</v>
-      </c>
-      <c r="B23">
-        <v>42205.478000000003</v>
-      </c>
-      <c r="C23">
-        <v>157.22300000000001</v>
-      </c>
-      <c r="D23">
-        <v>157.18199999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>20240429</v>
-      </c>
-      <c r="B24">
-        <v>42205.733</v>
-      </c>
-      <c r="C24">
-        <v>157.202</v>
-      </c>
-      <c r="D24">
-        <v>157.178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>20240429</v>
-      </c>
-      <c r="B25">
-        <v>42205.785000000003</v>
-      </c>
-      <c r="C25">
-        <v>157.202</v>
-      </c>
-      <c r="D25">
-        <v>157.17599999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>20240429</v>
-      </c>
-      <c r="B26">
-        <v>42205.837</v>
-      </c>
-      <c r="C26">
-        <v>157.179</v>
-      </c>
-      <c r="D26">
-        <v>157.17599999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>20240429</v>
-      </c>
-      <c r="B27">
-        <v>42205.889000000003</v>
-      </c>
-      <c r="C27">
-        <v>157.161</v>
-      </c>
-      <c r="D27">
-        <v>157.136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>20240429</v>
-      </c>
-      <c r="B28">
-        <v>42205.940999999999</v>
-      </c>
-      <c r="C28">
-        <v>157.15199999999999</v>
-      </c>
-      <c r="D28">
-        <v>157.137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>20240429</v>
-      </c>
-      <c r="B29">
-        <v>42205.993000000002</v>
-      </c>
-      <c r="C29">
-        <v>157.15199999999999</v>
-      </c>
-      <c r="D29">
-        <v>157.11799999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>20240429</v>
-      </c>
-      <c r="B30">
-        <v>42206.095000000001</v>
-      </c>
-      <c r="C30">
-        <v>157.15299999999999</v>
-      </c>
-      <c r="D30">
-        <v>157.11699999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>20240429</v>
-      </c>
-      <c r="B31">
-        <v>42206.146999999997</v>
-      </c>
-      <c r="C31">
-        <v>157.15199999999999</v>
-      </c>
-      <c r="D31">
-        <v>157.11799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>20240429</v>
-      </c>
-      <c r="B32">
-        <v>42206.197999999997</v>
-      </c>
-      <c r="C32">
-        <v>157.15199999999999</v>
-      </c>
-      <c r="D32">
-        <v>157.12799999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>20240429</v>
-      </c>
-      <c r="B33">
-        <v>42206.300999999999</v>
-      </c>
-      <c r="C33">
-        <v>157.12700000000001</v>
-      </c>
-      <c r="D33">
-        <v>157.12299999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>20240429</v>
-      </c>
-      <c r="B34">
-        <v>42206.353000000003</v>
-      </c>
-      <c r="C34">
-        <v>157.13399999999999</v>
-      </c>
-      <c r="D34">
-        <v>157.11199999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>20240429</v>
-      </c>
-      <c r="B35">
-        <v>42206.404000000002</v>
-      </c>
-      <c r="C35">
-        <v>157.09800000000001</v>
-      </c>
-      <c r="D35">
-        <v>157.07300000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>20240429</v>
-      </c>
-      <c r="B36">
-        <v>42206.455999999998</v>
-      </c>
-      <c r="C36">
-        <v>157.08799999999999</v>
-      </c>
-      <c r="D36">
-        <v>157.06100000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>20240429</v>
-      </c>
-      <c r="B37">
-        <v>42206.508000000002</v>
-      </c>
-      <c r="C37">
-        <v>157.08799999999999</v>
-      </c>
-      <c r="D37">
-        <v>157.05099999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>20240429</v>
-      </c>
-      <c r="B38">
-        <v>42206.559999999998</v>
-      </c>
-      <c r="C38">
-        <v>157.08799999999999</v>
-      </c>
-      <c r="D38">
-        <v>157.05099999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>20240429</v>
-      </c>
-      <c r="B39">
-        <v>42206.610999999997</v>
-      </c>
-      <c r="C39">
-        <v>157.08799999999999</v>
-      </c>
-      <c r="D39">
-        <v>157.05099999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>20240429</v>
-      </c>
-      <c r="B40">
-        <v>42206.713000000003</v>
-      </c>
-      <c r="C40">
-        <v>157.08799999999999</v>
-      </c>
-      <c r="D40">
-        <v>157.05099999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>20240429</v>
-      </c>
-      <c r="B41">
-        <v>42206.866999999998</v>
-      </c>
-      <c r="C41">
-        <v>157.08199999999999</v>
-      </c>
-      <c r="D41">
-        <v>157.05000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>20240429</v>
-      </c>
-      <c r="B42">
-        <v>42206.919000000002</v>
-      </c>
-      <c r="C42">
-        <v>157.06700000000001</v>
-      </c>
-      <c r="D42">
-        <v>157.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>20240429</v>
-      </c>
-      <c r="B43">
-        <v>42206.970999999998</v>
-      </c>
-      <c r="C43">
-        <v>157.05199999999999</v>
-      </c>
-      <c r="D43">
-        <v>157.02600000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>20240429</v>
-      </c>
-      <c r="B44">
-        <v>42207.023000000001</v>
-      </c>
-      <c r="C44">
-        <v>157.06399999999999</v>
-      </c>
-      <c r="D44">
-        <v>157.02699999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>20240429</v>
-      </c>
-      <c r="B45">
-        <v>42207.074999999997</v>
-      </c>
-      <c r="C45">
-        <v>157.066</v>
-      </c>
-      <c r="D45">
-        <v>157.029</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>20240429</v>
-      </c>
-      <c r="B46">
-        <v>42207.125999999997</v>
-      </c>
-      <c r="C46">
-        <v>157.066</v>
-      </c>
-      <c r="D46">
-        <v>157.029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>20240429</v>
-      </c>
-      <c r="B47">
-        <v>42207.279000000002</v>
-      </c>
-      <c r="C47">
-        <v>157.024</v>
-      </c>
-      <c r="D47">
-        <v>156.98500000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>20240429</v>
-      </c>
-      <c r="B48">
-        <v>42207.330999999998</v>
-      </c>
-      <c r="C48">
-        <v>157.018</v>
-      </c>
-      <c r="D48">
-        <v>156.98400000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>20240429</v>
-      </c>
-      <c r="B49">
-        <v>42207.381999999998</v>
-      </c>
-      <c r="C49">
-        <v>157.01599999999999</v>
-      </c>
-      <c r="D49">
-        <v>156.98099999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>20240429</v>
-      </c>
-      <c r="B50">
-        <v>42207.434000000001</v>
-      </c>
-      <c r="C50">
-        <v>157.01900000000001</v>
-      </c>
-      <c r="D50">
-        <v>156.97800000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>20240429</v>
-      </c>
-      <c r="B51">
-        <v>42207.536999999997</v>
-      </c>
-      <c r="C51">
-        <v>157.01900000000001</v>
-      </c>
-      <c r="D51">
-        <v>156.97800000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>20240429</v>
-      </c>
-      <c r="B52">
-        <v>42207.64</v>
-      </c>
-      <c r="C52">
-        <v>157.066</v>
-      </c>
-      <c r="D52">
-        <v>157.01900000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>20240429</v>
-      </c>
-      <c r="B53">
-        <v>42207.692000000003</v>
-      </c>
-      <c r="C53">
-        <v>157.06</v>
-      </c>
-      <c r="D53">
-        <v>157.02199999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>20240429</v>
-      </c>
-      <c r="B54">
-        <v>42207.794999999998</v>
-      </c>
-      <c r="C54">
-        <v>157.078</v>
-      </c>
-      <c r="D54">
-        <v>157.03800000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>20240429</v>
-      </c>
-      <c r="B55">
-        <v>42207.847000000002</v>
-      </c>
-      <c r="C55">
-        <v>157.08500000000001</v>
-      </c>
-      <c r="D55">
-        <v>157.041</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>20240429</v>
-      </c>
-      <c r="B56">
-        <v>42207.898000000001</v>
-      </c>
-      <c r="C56">
-        <v>157.08500000000001</v>
-      </c>
-      <c r="D56">
-        <v>157.041</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>20240429</v>
-      </c>
-      <c r="B57">
-        <v>42208</v>
-      </c>
-      <c r="C57">
-        <v>157.078</v>
-      </c>
-      <c r="D57">
-        <v>157.041</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>20240429</v>
-      </c>
-      <c r="B58">
-        <v>42208.052000000003</v>
-      </c>
-      <c r="C58">
-        <v>157.042</v>
-      </c>
-      <c r="D58">
-        <v>157.00800000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>20240429</v>
-      </c>
-      <c r="B59">
-        <v>42208.103999999999</v>
-      </c>
-      <c r="C59">
-        <v>157.04499999999999</v>
-      </c>
-      <c r="D59">
-        <v>157.012</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>20240429</v>
-      </c>
-      <c r="B60">
-        <v>42208.207000000002</v>
-      </c>
-      <c r="C60">
-        <v>157.077</v>
-      </c>
-      <c r="D60">
-        <v>157.04</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>20240429</v>
-      </c>
-      <c r="B61">
-        <v>42208.258000000002</v>
-      </c>
-      <c r="C61">
-        <v>157.072</v>
-      </c>
-      <c r="D61">
-        <v>157.04</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>20240429</v>
-      </c>
-      <c r="B62">
-        <v>42208.31</v>
-      </c>
-      <c r="C62">
-        <v>157.072</v>
-      </c>
-      <c r="D62">
-        <v>157.03</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>20240429</v>
-      </c>
-      <c r="B63">
-        <v>42208.411999999997</v>
-      </c>
-      <c r="C63">
-        <v>157.072</v>
-      </c>
-      <c r="D63">
-        <v>157.03899999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>20240429</v>
-      </c>
-      <c r="B64">
-        <v>42208.464</v>
-      </c>
-      <c r="C64">
-        <v>157.07499999999999</v>
-      </c>
-      <c r="D64">
-        <v>157.041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>20240429</v>
-      </c>
-      <c r="B65">
-        <v>42208.536999999997</v>
-      </c>
-      <c r="C65">
-        <v>157.07400000000001</v>
-      </c>
-      <c r="D65">
-        <v>157.03200000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>20240429</v>
-      </c>
-      <c r="B66">
-        <v>42208.741999999998</v>
-      </c>
-      <c r="C66">
-        <v>157.065</v>
-      </c>
-      <c r="D66">
-        <v>157.03200000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>20240429</v>
-      </c>
-      <c r="B67">
-        <v>42208.794000000002</v>
-      </c>
-      <c r="C67">
-        <v>157.03700000000001</v>
-      </c>
-      <c r="D67">
-        <v>157.02699999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>20240429</v>
-      </c>
-      <c r="B68">
-        <v>42208.845999999998</v>
-      </c>
-      <c r="C68">
-        <v>157.03700000000001</v>
-      </c>
-      <c r="D68">
-        <v>157.01400000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>20240429</v>
-      </c>
-      <c r="B69">
-        <v>42208.898999999998</v>
-      </c>
-      <c r="C69">
-        <v>157.035</v>
-      </c>
-      <c r="D69">
-        <v>157.012</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>20240429</v>
-      </c>
-      <c r="B70">
-        <v>42209.002</v>
-      </c>
-      <c r="C70">
-        <v>157.03800000000001</v>
-      </c>
-      <c r="D70">
-        <v>157.01300000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>20240429</v>
-      </c>
-      <c r="B71">
-        <v>42209.053</v>
-      </c>
-      <c r="C71">
-        <v>157.03399999999999</v>
-      </c>
-      <c r="D71">
-        <v>157.01300000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>20240429</v>
-      </c>
-      <c r="B72">
-        <v>42209.154999999999</v>
-      </c>
-      <c r="C72">
-        <v>157.03399999999999</v>
-      </c>
-      <c r="D72">
-        <v>157.012</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>20240429</v>
-      </c>
-      <c r="B73">
-        <v>42209.258000000002</v>
-      </c>
-      <c r="C73">
-        <v>157.03700000000001</v>
-      </c>
-      <c r="D73">
-        <v>157.01400000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>20240429</v>
-      </c>
-      <c r="B74">
-        <v>42209.31</v>
-      </c>
-      <c r="C74">
-        <v>157.03399999999999</v>
-      </c>
-      <c r="D74">
-        <v>157.012</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>20240429</v>
-      </c>
-      <c r="B75">
-        <v>42209.411999999997</v>
-      </c>
-      <c r="C75">
-        <v>157.03700000000001</v>
-      </c>
-      <c r="D75">
-        <v>157.017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>20240429</v>
-      </c>
-      <c r="B76">
-        <v>42209.514999999999</v>
-      </c>
-      <c r="C76">
-        <v>157.02699999999999</v>
-      </c>
-      <c r="D76">
-        <v>157.01599999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>20240429</v>
-      </c>
-      <c r="B77">
-        <v>42209.567000000003</v>
-      </c>
-      <c r="C77">
-        <v>157.083</v>
-      </c>
-      <c r="D77">
-        <v>156.97200000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>20240429</v>
-      </c>
-      <c r="B78">
-        <v>42209.618000000002</v>
-      </c>
-      <c r="C78">
-        <v>156.99600000000001</v>
-      </c>
-      <c r="D78">
-        <v>156.977</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>20240429</v>
-      </c>
-      <c r="B79">
-        <v>42209.67</v>
-      </c>
-      <c r="C79">
-        <v>156.99700000000001</v>
-      </c>
-      <c r="D79">
-        <v>156.971</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>20240429</v>
-      </c>
-      <c r="B80">
-        <v>42209.722000000002</v>
-      </c>
-      <c r="C80">
-        <v>156.99600000000001</v>
-      </c>
-      <c r="D80">
-        <v>156.977</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>20240429</v>
-      </c>
-      <c r="B81">
-        <v>42209.773000000001</v>
-      </c>
-      <c r="C81">
-        <v>157.012</v>
-      </c>
-      <c r="D81">
-        <v>156.977</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>20240429</v>
-      </c>
-      <c r="B82">
-        <v>42209.824999999997</v>
-      </c>
-      <c r="C82">
-        <v>157.00899999999999</v>
-      </c>
-      <c r="D82">
-        <v>156.971</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>20240429</v>
-      </c>
-      <c r="B83">
-        <v>42209.978000000003</v>
-      </c>
-      <c r="C83">
-        <v>157.00899999999999</v>
-      </c>
-      <c r="D83">
-        <v>156.971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>20240429</v>
-      </c>
-      <c r="B84">
-        <v>42210.03</v>
-      </c>
-      <c r="C84">
-        <v>157.00899999999999</v>
-      </c>
-      <c r="D84">
-        <v>156.971</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>20240429</v>
-      </c>
-      <c r="B85">
-        <v>42210.133000000002</v>
-      </c>
-      <c r="C85">
-        <v>157.011</v>
-      </c>
-      <c r="D85">
-        <v>156.97399999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>20240429</v>
-      </c>
-      <c r="B86">
-        <v>42210.184000000001</v>
-      </c>
-      <c r="C86">
-        <v>157.00899999999999</v>
-      </c>
-      <c r="D86">
-        <v>156.971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>20240429</v>
-      </c>
-      <c r="B87">
-        <v>42210.235999999997</v>
-      </c>
-      <c r="C87">
-        <v>157.012</v>
-      </c>
-      <c r="D87">
-        <v>156.982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>20240429</v>
-      </c>
-      <c r="B88">
-        <v>42210.339</v>
-      </c>
-      <c r="C88">
-        <v>157.011</v>
-      </c>
-      <c r="D88">
-        <v>156.983</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>20240429</v>
-      </c>
-      <c r="B89">
-        <v>42210.440999999999</v>
-      </c>
-      <c r="C89">
-        <v>157.011</v>
-      </c>
-      <c r="D89">
-        <v>156.983</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>20240429</v>
-      </c>
-      <c r="B90">
-        <v>42210.542999999998</v>
-      </c>
-      <c r="C90">
-        <v>157.012</v>
-      </c>
-      <c r="D90">
-        <v>156.983</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>20240429</v>
-      </c>
-      <c r="B91">
-        <v>42210.796000000002</v>
-      </c>
-      <c r="C91">
-        <v>157.00200000000001</v>
-      </c>
-      <c r="D91">
-        <v>156.98699999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>20240429</v>
-      </c>
-      <c r="B92">
-        <v>42210.847999999998</v>
-      </c>
-      <c r="C92">
-        <v>157.001</v>
-      </c>
-      <c r="D92">
-        <v>156.983</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>20240429</v>
-      </c>
-      <c r="B93">
-        <v>42210.9</v>
-      </c>
-      <c r="C93">
-        <v>156.98500000000001</v>
-      </c>
-      <c r="D93">
-        <v>156.98099999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>20240429</v>
-      </c>
-      <c r="B94">
-        <v>42210.951999999997</v>
-      </c>
-      <c r="C94">
-        <v>156.988</v>
-      </c>
-      <c r="D94">
-        <v>156.97200000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>20240429</v>
-      </c>
-      <c r="B95">
-        <v>42211.002999999997</v>
-      </c>
-      <c r="C95">
-        <v>156.97200000000001</v>
-      </c>
-      <c r="D95">
-        <v>156.97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>20240429</v>
-      </c>
-      <c r="B96">
-        <v>42211.055</v>
-      </c>
-      <c r="C96">
-        <v>156.971</v>
-      </c>
-      <c r="D96">
-        <v>156.95699999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>20240429</v>
-      </c>
-      <c r="B97">
-        <v>42211.107000000004</v>
-      </c>
-      <c r="C97">
-        <v>156.96</v>
-      </c>
-      <c r="D97">
-        <v>156.95699999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C253762-01A1-4ED6-8E1B-9CEAA698504D}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G81" sqref="G5:G81"/>
+      <selection activeCell="P3" sqref="P3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35905,7 +34368,7 @@
     <col min="8" max="12" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>20240429</v>
       </c>
@@ -35927,7 +34390,7 @@
         <v>157.15049999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20240429</v>
       </c>
@@ -35955,7 +34418,7 @@
         <v>42209.618000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20240429</v>
       </c>
@@ -36001,8 +34464,12 @@
         <f>(N2-42203)*100+3412</f>
         <v>4073.8000000002212</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <f>H3-J3</f>
+        <v>0.22100000000000364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -36045,8 +34512,20 @@
       <c r="N4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f>P3*0.7*0.7</f>
+        <v>0.10829000000000176</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>I3-J3</f>
+        <v>4.4000000000011141E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <f>Q4/P4</f>
+        <v>0.40631637270302362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20240429</v>
       </c>
@@ -36100,7 +34579,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20240429</v>
       </c>
@@ -36154,7 +34633,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20240429</v>
       </c>
@@ -36208,7 +34687,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20240429</v>
       </c>
@@ -36262,7 +34741,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20240429</v>
       </c>
@@ -36316,7 +34795,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20240429</v>
       </c>
@@ -36370,7 +34849,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20240429</v>
       </c>
@@ -36424,7 +34903,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20240429</v>
       </c>
@@ -36478,7 +34957,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20240429</v>
       </c>
@@ -36532,7 +35011,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20240429</v>
       </c>
@@ -36586,7 +35065,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20240429</v>
       </c>
@@ -36640,7 +35119,7 @@
         <v>4073.8000000002212</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20240429</v>
       </c>
